--- a/OrderList.xlsx
+++ b/OrderList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Thiet ke he thong\Jomaship-order-placing-automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D7B4BE6-855F-4E3A-A0C4-0680E495E62F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7EFDF03-954C-4040-8570-A99169851200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{77CE39AD-E6D1-43F9-AF53-FE677547F23C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="23280" windowHeight="12480" xr2:uid="{77CE39AD-E6D1-43F9-AF53-FE677547F23C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Order Number</t>
   </si>
@@ -52,21 +52,6 @@
   <si>
     <t>TISTT1214204705102</t>
   </si>
-  <si>
-    <t>SDH002</t>
-  </si>
-  <si>
-    <t>TIST0639073603800</t>
-  </si>
-  <si>
-    <t>SDH003</t>
-  </si>
-  <si>
-    <t>OM42410372001001</t>
-  </si>
-  <si>
-    <t>OM42410402001001</t>
-  </si>
 </sst>
 </file>
 
@@ -81,7 +66,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -91,12 +76,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -119,11 +98,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -142,9 +120,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -182,7 +160,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -288,7 +266,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -430,7 +408,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -438,20 +416,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1A5196C-7C6D-4B17-9661-DAA133F4AE2E}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -462,71 +440,32 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
-        <v>1</v>
+      <c r="C2" s="2">
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1">
-        <v>1</v>
+      <c r="C3" s="2">
+        <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
